--- a/2.Excel/hands-on/6.Funcoes_Mercado/9.PROCX/1.PROCX.xlsx
+++ b/2.Excel/hands-on/6.Funcoes_Mercado/9.PROCX/1.PROCX.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\Projetos para Github\Hashtag\2.Excel\hands-on\6.Funcoes_Mercado\9.PROCX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2198980-60B7-4B6B-A876-D374A57C326D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB380545-9066-4805-9E50-E73633BD481A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11652" yWindow="108" windowWidth="11376" windowHeight="12792" xr2:uid="{90D394A7-0334-4363-9DA1-420D95C76B52}"/>
+    <workbookView xWindow="11652" yWindow="108" windowWidth="11376" windowHeight="12792" activeTab="1" xr2:uid="{90D394A7-0334-4363-9DA1-420D95C76B52}"/>
   </bookViews>
   <sheets>
     <sheet name="PROCX1" sheetId="2" r:id="rId1"/>
@@ -1526,7 +1526,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1809EF98-FC10-4422-B0BD-9E97AD3F071B}">
   <dimension ref="A1:H309"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
@@ -3770,7 +3770,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D440E865-CE29-4B59-BFD7-1552AC890A9B}">
   <dimension ref="A1:H309"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3878,11 +3880,11 @@
         <v>4</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H5" s="2" t="str">
         <f>_xlfn.XLOOKUP(G5,B:B,E:E,_xlfn.XLOOKUP(G5,C:C,E:E,"Não encontrado"))</f>
-        <v>Delta</v>
+        <v>Beta</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">

--- a/2.Excel/hands-on/6.Funcoes_Mercado/9.PROCX/1.PROCX.xlsx
+++ b/2.Excel/hands-on/6.Funcoes_Mercado/9.PROCX/1.PROCX.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\Projetos para Github\Hashtag\2.Excel\hands-on\6.Funcoes_Mercado\9.PROCX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB380545-9066-4805-9E50-E73633BD481A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{604DA235-23D7-4DFF-B806-19933BA6E738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11652" yWindow="108" windowWidth="11376" windowHeight="12792" activeTab="1" xr2:uid="{90D394A7-0334-4363-9DA1-420D95C76B52}"/>
+    <workbookView xWindow="12228" yWindow="108" windowWidth="10800" windowHeight="12792" activeTab="2" xr2:uid="{90D394A7-0334-4363-9DA1-420D95C76B52}"/>
   </bookViews>
   <sheets>
     <sheet name="PROCX1" sheetId="2" r:id="rId1"/>
@@ -3770,7 +3770,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D440E865-CE29-4B59-BFD7-1552AC890A9B}">
   <dimension ref="A1:H309"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
@@ -6300,7 +6300,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F76870CB-1918-4C9E-B779-40C50444831D}">
   <dimension ref="A1:I309"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
@@ -6341,7 +6343,7 @@
         <v>108</v>
       </c>
       <c r="C2" s="8">
-        <v>2434</v>
+        <v>15000</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>6</v>
@@ -6502,7 +6504,7 @@
         <v>1</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>145</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -6523,7 +6525,7 @@
       </c>
       <c r="H10" s="8">
         <f>_xlfn.XLOOKUP(H9,B:B,C:C)</f>
-        <v>7088</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -6561,7 +6563,7 @@
       </c>
       <c r="H12" s="1" t="str">
         <f>_xlfn.XLOOKUP(H10,G2:G7,I2:I7,,-1)</f>
-        <v>Nível D</v>
+        <v>Nível F</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -6585,7 +6587,7 @@
       </c>
       <c r="H13" s="1" t="str">
         <f>_xlfn.XLOOKUP(H10,H2:H7,I2:I7,,1)</f>
-        <v>Nível D</v>
+        <v>Nível F</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">

--- a/2.Excel/hands-on/6.Funcoes_Mercado/9.PROCX/1.PROCX.xlsx
+++ b/2.Excel/hands-on/6.Funcoes_Mercado/9.PROCX/1.PROCX.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\Projetos para Github\Hashtag\2.Excel\hands-on\6.Funcoes_Mercado\9.PROCX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{604DA235-23D7-4DFF-B806-19933BA6E738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81B4E466-C4CA-4118-BEEC-AACDA01881F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12228" yWindow="108" windowWidth="10800" windowHeight="12792" activeTab="2" xr2:uid="{90D394A7-0334-4363-9DA1-420D95C76B52}"/>
+    <workbookView xWindow="12228" yWindow="108" windowWidth="10800" windowHeight="12792" firstSheet="2" activeTab="3" xr2:uid="{90D394A7-0334-4363-9DA1-420D95C76B52}"/>
   </bookViews>
   <sheets>
     <sheet name="PROCX1" sheetId="2" r:id="rId1"/>
@@ -6300,7 +6300,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F76870CB-1918-4C9E-B779-40C50444831D}">
   <dimension ref="A1:I309"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="C7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
@@ -8620,7 +8620,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5AEFD92-AE42-445C-8771-97B628B0347E}">
   <dimension ref="A1:Q500"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
@@ -8650,7 +8652,7 @@
         <v>2</v>
       </c>
       <c r="G1" s="23" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K1" s="7" t="s">
         <v>285</v>
@@ -8691,8 +8693,8 @@
         <v>293</v>
       </c>
       <c r="G3" s="19" t="str">
-        <f>_xlfn.XLOOKUP(G1,C:C,B:B)</f>
-        <v>Projeto 30</v>
+        <f>_xlfn.XLOOKUP(G1,C:C,B:B,,,1)</f>
+        <v>Projeto 36</v>
       </c>
       <c r="K3" s="7" t="s">
         <v>287</v>
@@ -8715,8 +8717,8 @@
         <v>295</v>
       </c>
       <c r="G4" s="22">
-        <f>_xlfn.XLOOKUP(G3,B:B,A:A)</f>
-        <v>44197</v>
+        <f>_xlfn.XLOOKUP(G1,C:C,A:A,)</f>
+        <v>44199</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>284</v>
@@ -8739,8 +8741,8 @@
         <v>3</v>
       </c>
       <c r="G5" s="20" t="str">
-        <f>_xlfn.XLOOKUP(G3,B:B,D:D)</f>
-        <v>Concluído</v>
+        <f>_xlfn.XLOOKUP(G1,C:C,D:D)</f>
+        <v>Negociando</v>
       </c>
       <c r="K5"/>
     </row>
@@ -8777,7 +8779,7 @@
       </c>
       <c r="G7" s="20" t="str">
         <f>_xlfn.XLOOKUP(G1,C:C,B:B,,,-1)</f>
-        <v>Projeto 34</v>
+        <v>Projeto 40</v>
       </c>
       <c r="K7"/>
     </row>
@@ -8798,8 +8800,8 @@
         <v>295</v>
       </c>
       <c r="G8" s="22">
-        <f>_xlfn.XLOOKUP(G7,B:B,A:A)</f>
-        <v>44223</v>
+        <f>_xlfn.XLOOKUP(G1,C:C,A:A,,,-1)</f>
+        <v>44227</v>
       </c>
       <c r="K8"/>
     </row>
@@ -8820,8 +8822,8 @@
         <v>3</v>
       </c>
       <c r="G9" s="20" t="str">
-        <f>_xlfn.XLOOKUP(G7,B:B,D:D)</f>
-        <v>Encerrado</v>
+        <f>_xlfn.XLOOKUP(G1,C:C,D:D,,,-1)</f>
+        <v>Contrato</v>
       </c>
       <c r="K9"/>
     </row>

--- a/2.Excel/hands-on/6.Funcoes_Mercado/9.PROCX/1.PROCX.xlsx
+++ b/2.Excel/hands-on/6.Funcoes_Mercado/9.PROCX/1.PROCX.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\Projetos para Github\Hashtag\2.Excel\hands-on\6.Funcoes_Mercado\9.PROCX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81B4E466-C4CA-4118-BEEC-AACDA01881F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96B4B14D-4A7E-445D-895E-CEC9D003E76A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12228" yWindow="108" windowWidth="10800" windowHeight="12792" firstSheet="2" activeTab="3" xr2:uid="{90D394A7-0334-4363-9DA1-420D95C76B52}"/>
+    <workbookView xWindow="12228" yWindow="108" windowWidth="10800" windowHeight="12792" firstSheet="2" activeTab="4" xr2:uid="{90D394A7-0334-4363-9DA1-420D95C76B52}"/>
   </bookViews>
   <sheets>
     <sheet name="PROCX1" sheetId="2" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -8620,7 +8620,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5AEFD92-AE42-445C-8771-97B628B0347E}">
   <dimension ref="A1:Q500"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="E1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
@@ -11751,7 +11751,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B933CF86-C9EF-4C27-85FB-36EA3ED2E0D8}">
   <dimension ref="A1:M499"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
@@ -11826,7 +11828,7 @@
         <v>12</v>
       </c>
       <c r="I2" s="26" cm="1">
-        <f t="array" ref="I2:M2">_xlfn.XLOOKUP($H2,A:A,B:F)</f>
+        <f t="array" ref="I2:M2">_xlfn.XLOOKUP(H2,A:A,B:F)</f>
         <v>12000</v>
       </c>
       <c r="J2" s="26">
@@ -11862,23 +11864,23 @@
         <v>10700</v>
       </c>
       <c r="H3" s="21" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="I3" s="26" cm="1">
-        <f t="array" ref="I3:M3">_xlfn.XLOOKUP($H3,A:A,B:F)</f>
-        <v>6100</v>
+        <f t="array" ref="I3:M3">_xlfn.XLOOKUP(H3,A:A,B:F)</f>
+        <v>7400</v>
       </c>
       <c r="J3" s="26">
-        <v>14900</v>
+        <v>1000</v>
       </c>
       <c r="K3" s="26">
-        <v>13100</v>
+        <v>9800</v>
       </c>
       <c r="L3" s="26">
-        <v>18800</v>
+        <v>17700</v>
       </c>
       <c r="M3" s="26">
-        <v>1300</v>
+        <v>19600</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -11901,23 +11903,23 @@
         <v>7100</v>
       </c>
       <c r="H4" s="21" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I4" s="26" cm="1">
-        <f t="array" ref="I4:M4">_xlfn.XLOOKUP($H4,A:A,B:F)</f>
-        <v>9100</v>
+        <f t="array" ref="I4:M4">_xlfn.XLOOKUP(H4,A:A,B:F)</f>
+        <v>5600</v>
       </c>
       <c r="J4" s="26">
         <v>10300</v>
       </c>
       <c r="K4" s="26">
-        <v>19100</v>
+        <v>4200</v>
       </c>
       <c r="L4" s="26">
-        <v>17300</v>
+        <v>11600</v>
       </c>
       <c r="M4" s="26">
-        <v>1000</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
